--- a/Lista de exercicios 30-09.xlsx
+++ b/Lista de exercicios 30-09.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FATEC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LUCAS 2023\ADS-III\ESTATISTICA-APLICADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB70FA96-F167-4222-B7E1-C87E5327EBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ex01" sheetId="1" r:id="rId1"/>
     <sheet name="Ex02" sheetId="2" r:id="rId2"/>
     <sheet name="Ex03" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -217,13 +218,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -293,7 +294,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -304,28 +305,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,14 +323,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -410,7 +405,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -581,7 +575,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -693,7 +686,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1360,7 +1352,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1640,11 +1638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1659,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2">
@@ -1684,14 +1682,14 @@
       <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="K4" s="18"/>
+      <c r="M4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="9"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
@@ -1711,10 +1709,10 @@
         <f>AVERAGE(D5:D24)</f>
         <v>6.8150000000000004</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
@@ -1734,16 +1732,16 @@
         <f>MEDIAN(D5:D24)</f>
         <v>6.8550000000000004</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="2">
         <v>5.6469999999999994</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="2">
         <v>6.8150000000000004</v>
       </c>
     </row>
@@ -1765,16 +1763,16 @@
         <f>_xlfn.MODE.SNGL(D5:D24)</f>
         <v>6.46</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="2">
         <v>8.6356360811648256E-2</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="2">
         <v>0.15040559200130546</v>
       </c>
     </row>
@@ -1796,16 +1794,16 @@
         <f>STDEVA(D5:D24)</f>
         <v>0.67263425582203529</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="2">
         <v>5.57</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="2">
         <v>6.8550000000000004</v>
       </c>
     </row>
@@ -1827,16 +1825,16 @@
         <f>_xlfn.VAR.S(D5:D24)</f>
         <v>0.45243684210526314</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="6" t="e">
+      <c r="K9" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="2">
         <v>6.46</v>
       </c>
     </row>
@@ -1847,16 +1845,16 @@
       <c r="D10" s="2">
         <v>6.17</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="2">
         <v>0.38619738612868887</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="2">
         <v>0.67263425582203529</v>
       </c>
     </row>
@@ -1867,23 +1865,23 @@
       <c r="D11" s="2">
         <v>6.46</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="J11" s="6" t="s">
+      <c r="H11" s="20"/>
+      <c r="J11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="2">
         <v>0.1491484210526316</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="2">
         <v>0.45243684210526314</v>
       </c>
     </row>
@@ -1894,18 +1892,18 @@
       <c r="D12" s="2">
         <v>6.93</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="J12" s="6" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="J12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="2">
         <v>-1.2643482838222524</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="2">
         <v>-0.55907697472144102</v>
       </c>
     </row>
@@ -1916,18 +1914,18 @@
       <c r="D13" s="2">
         <v>7.08</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="J13" s="6" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="J13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="2">
         <v>0.11799813831163472</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="2">
         <v>-1.6670224003453568E-2</v>
       </c>
     </row>
@@ -1938,18 +1936,18 @@
       <c r="D14" s="2">
         <v>7.33</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="J14" s="6" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="J14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="2">
         <v>1.25</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="2">
         <v>2.5099999999999998</v>
       </c>
     </row>
@@ -1960,18 +1958,18 @@
       <c r="D15" s="2">
         <v>6.12</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="J15" s="6" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="J15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="2">
         <v>5.51</v>
       </c>
     </row>
@@ -1982,18 +1980,18 @@
       <c r="D16" s="2">
         <v>5.84</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="J16" s="6" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="J16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="2">
         <v>6.27</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="2">
         <v>8.02</v>
       </c>
     </row>
@@ -2004,18 +2002,18 @@
       <c r="D17" s="2">
         <v>6.76</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="J17" s="6" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="J17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="2">
         <v>112.93999999999998</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="2">
         <v>136.30000000000001</v>
       </c>
     </row>
@@ -2026,18 +2024,18 @@
       <c r="D18" s="2">
         <v>7.51</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="J18" s="6" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="J18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="2">
         <v>20</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="2">
         <v>20</v>
       </c>
     </row>
@@ -2048,18 +2046,18 @@
       <c r="D19" s="2">
         <v>6.9</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="J19" s="6" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="2">
         <v>6.27</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="2">
         <v>8.02</v>
       </c>
     </row>
@@ -2070,16 +2068,16 @@
       <c r="D20" s="2">
         <v>6.46</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="2">
         <v>5.51</v>
       </c>
     </row>
@@ -2090,16 +2088,16 @@
       <c r="D21" s="2">
         <v>7.87</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="2">
         <v>0.18074594042994283</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="2">
         <v>0.31480252197625425</v>
       </c>
     </row>
@@ -2110,17 +2108,17 @@
       <c r="D22" s="2">
         <v>8.02</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="8">
         <f>K10/K6</f>
         <v>6.8389832854380897E-2</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="8">
         <f>N10/N6</f>
         <v>9.8699083759653014E-2</v>
       </c>
@@ -2132,7 +2130,7 @@
       <c r="D23" s="2">
         <v>6.41</v>
       </c>
-      <c r="J23" s="8"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
@@ -2143,25 +2141,25 @@
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="7">
         <f>(N6-K6)/K6</f>
         <v>0.20683548786966552</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="K27" s="8"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
@@ -2180,11 +2178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2213,7 +2211,7 @@
       <c r="F4" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2230,21 +2228,21 @@
       <c r="D5" s="2">
         <v>10000</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="12">
         <f>D5/$D$12</f>
         <v>0.48780487804878048</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="14">
         <v>10000</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="10">
         <v>1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="10">
         <f>G5*D5</f>
         <v>10000</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f>(G5-$C$14)^2*D5</f>
         <v>14570252.41</v>
       </c>
@@ -2256,22 +2254,22 @@
       <c r="D6" s="2">
         <v>3900</v>
       </c>
-      <c r="E6" s="17">
-        <f t="shared" ref="E6:E12" si="0">D6/$D$12</f>
+      <c r="E6" s="12">
+        <f t="shared" ref="E6:E11" si="0">D6/$D$12</f>
         <v>0.19024390243902439</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="15">
         <f>F5+D6</f>
         <v>13900</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="10">
         <v>3</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="10">
         <f t="shared" ref="H6:H11" si="1">G6*D6</f>
         <v>11700</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" ref="I6:I11" si="2">(G6-$C$14)^2*D6</f>
         <v>5102530.8398999991</v>
       </c>
@@ -2283,22 +2281,22 @@
       <c r="D7" s="2">
         <v>2000</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="15">
         <f t="shared" ref="F7:F11" si="3">F6+D7</f>
         <v>15900</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="10">
         <v>5</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="2"/>
         <v>2335314.4819999998</v>
       </c>
@@ -2310,22 +2308,22 @@
       <c r="D8" s="2">
         <v>1100</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>5.3658536585365853E-2</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="15">
         <f t="shared" si="3"/>
         <v>17000</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="10">
         <v>7</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>7700</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="2"/>
         <v>1138470.5651</v>
       </c>
@@ -2337,22 +2335,22 @@
       <c r="D9" s="2">
         <v>800</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>3.9024390243902439E-2</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="15">
         <f t="shared" si="3"/>
         <v>17800</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="10">
         <v>9</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="10">
         <f t="shared" si="1"/>
         <v>7200</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="2"/>
         <v>728231.39279999991</v>
       </c>
@@ -2364,22 +2362,22 @@
       <c r="D10" s="2">
         <v>700</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>3.4146341463414637E-2</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="15">
         <f t="shared" si="3"/>
         <v>18500</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="10">
         <v>11</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>7700</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="2"/>
         <v>555523.66870000004</v>
       </c>
@@ -2391,22 +2389,22 @@
       <c r="D11" s="2">
         <v>2000</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="15">
         <f t="shared" si="3"/>
         <v>20500</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="10">
         <v>13</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>26000</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="2"/>
         <v>1369842.4820000001</v>
       </c>
@@ -2419,17 +2417,17 @@
         <f>SUM(D5:D11)</f>
         <v>20500</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="12">
         <f>SUM(E5:E11)</f>
         <v>1</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15">
+      <c r="F12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <f>SUM(H5:H11)</f>
         <v>80300</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2468,7 +2466,7 @@
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="11">
         <f>C15/C14</f>
         <v>1.0117433815833141</v>
       </c>
@@ -2505,7 +2503,7 @@
       <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="11">
         <f>C19/C18</f>
         <v>2.0972222222222223</v>
       </c>
@@ -2520,7 +2518,7 @@
       <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="16">
         <f>0.9*D12</f>
         <v>18450</v>
       </c>
@@ -2531,7 +2529,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="22">
+      <c r="C24" s="17">
         <f>10000+((C22-F9)/D10)*2000</f>
         <v>11857.142857142857</v>
       </c>
@@ -2543,13 +2541,13 @@
       <c r="B26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="16">
         <f>1*D12</f>
         <v>20500</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="22">
+      <c r="C27" s="17">
         <f>12000+((C26-F10)/D11)*2000</f>
         <v>14000</v>
       </c>
@@ -2561,17 +2559,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>3</v>
       </c>
     </row>
